--- a/medicine/Mort/Cimetière_Flaminio/Cimetière_Flaminio.xlsx
+++ b/medicine/Mort/Cimetière_Flaminio/Cimetière_Flaminio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Flaminio</t>
+          <t>Cimetière_Flaminio</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Flaminio, (en italien : Cimitero Flaminio ou encore Cimitero di Prima Porta[1]) est le cimetière de la ville de Rome. Il est situé à la périphérie Nord de Rome, entre la Flaminia (direction vers Terni) et la Tiberina, derrière la gare Montebello de la ligne ferroviaire Roma-Civitacastellana-Viterbo, juste avant la gare de Sacrofano, en direction de Viterbo.
-Avec ses 140 ha d'extensions[2], c'est le cimetière le plus grand d'Italie. Il a été consacré en 1941 et est réputé pour son architecture cimétériale contemporaine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Flaminio, (en italien : Cimitero Flaminio ou encore Cimitero di Prima Porta) est le cimetière de la ville de Rome. Il est situé à la périphérie Nord de Rome, entre la Flaminia (direction vers Terni) et la Tiberina, derrière la gare Montebello de la ligne ferroviaire Roma-Civitacastellana-Viterbo, juste avant la gare de Sacrofano, en direction de Viterbo.
+Avec ses 140 ha d'extensions, c'est le cimetière le plus grand d'Italie. Il a été consacré en 1941 et est réputé pour son architecture cimétériale contemporaine.
 Le cimetière est traversé par 37 km de routes internes sur lesquelles on circule en automobile et autobus.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Flaminio</t>
+          <t>Cimetière_Flaminio</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sépultures sont majoritairement à fosse, d'autres, nombreuses, sont celles à chapelle ou à construction de forme semi-circulaire.
 Certaines parties sont dédiées spécifiquement aux diverses confessions religieuses.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Flaminio</t>
+          <t>Cimetière_Flaminio</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,6 +564,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
